--- a/Rasa_X/DataSave/DsMonHoc.xlsx
+++ b/Rasa_X/DataSave/DsMonHoc.xlsx
@@ -5,27 +5,37 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Rasa_X\DataSave\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\LEARNING\K4 N3\MNotSo\Chatbots_for_online_learning\Rasa_X\DataSave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559513C0-2E3A-4295-BB9B-B1837D3880B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B18D04-F1ED-420A-BEA1-F96421F73F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="275">
   <si>
     <t>Mã học phần</t>
   </si>
@@ -675,9 +685,6 @@
     <t>IT6009</t>
   </si>
   <si>
-    <t>Đồ án tốt nghiệp (Kỹ thuật phần mềm)</t>
-  </si>
-  <si>
     <t>IT6042</t>
   </si>
   <si>
@@ -826,6 +833,33 @@
   </si>
   <si>
     <t>Đảm bảo chất lượng phần mềm, Quản lý dự án công nghệ thông tin</t>
+  </si>
+  <si>
+    <t>Đồ án tốt nghiệp</t>
+  </si>
+  <si>
+    <t>Thực tập doanh nghiệp</t>
+  </si>
+  <si>
+    <t>Hinh Thức Thi</t>
+  </si>
+  <si>
+    <t>Tự Luận</t>
+  </si>
+  <si>
+    <t>Thực Hành</t>
+  </si>
+  <si>
+    <t>vấn Đáp</t>
+  </si>
+  <si>
+    <t>Bài Tập Lớn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vấn Đáp </t>
+  </si>
+  <si>
+    <t>Học phần</t>
   </si>
 </sst>
 </file>
@@ -1197,25 +1231,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="24.140625" customWidth="1"/>
     <col min="5" max="5" width="29.5703125" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1231,17 +1265,23 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
+      <c r="B2" s="2" t="str">
+        <f xml:space="preserve"> UPPER(H2)</f>
+        <v>TIẾNG ANH CÔNG NGHỆ THÔNG TIN CƠ BẢN 1</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
@@ -1252,156 +1292,212 @@
       <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="str">
+        <f xml:space="preserve"> UPPER(H3)</f>
+        <v>TRIẾT HỌC MÁC-LÊNIN</v>
+      </c>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="2" t="str">
+        <f t="shared" ref="B3:B66" si="0" xml:space="preserve"> UPPER(H4)</f>
+        <v>KINH TẾ CHÍNH TRỊ MÁC-LÊNIN</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>GIẢI TÍCH</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CÔNG TÁC QUỐC PHÒNG, AN NINH</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ĐƯỜNG LỐI QUÂN SỰ CỦA ĐẢNG</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>QS CHUNG VÀ CTKT BẮN SÚNG TLAK (CKC)</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>NHẬP MÔN VỀ KỸ THUẬT</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>270</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
+      <c r="B10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TIẾNG TRUNG CƠ BẢN 1</v>
       </c>
       <c r="C10" s="2">
         <v>5</v>
@@ -1412,16 +1508,23 @@
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" t="s">
+        <v>269</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
+      <c r="B11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TIẾNG HÀN CƠ BẢN 1</v>
       </c>
       <c r="C11" s="4">
         <v>5</v>
@@ -1432,16 +1535,23 @@
       <c r="E11" s="4">
         <v>0</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" t="s">
+        <v>269</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
+      <c r="B12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TIẾNG NHẬT CƠ BẢN 1</v>
       </c>
       <c r="C12" s="2">
         <v>5</v>
@@ -1452,176 +1562,239 @@
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
+        <v>269</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>BÓNG BÀN 1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>BÓNG BÀN 2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>270</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>BÓNG ĐÁ 1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>270</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="4">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>BÓNG ĐÁ 2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ĐÁ CẦU 1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>270</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ĐÁ CẦU 2</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>270</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CẦU MÂY 1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>270</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="4">
-        <v>1</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CẦU MÂY 2</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>270</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>44</v>
+      <c r="B21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TIẾNG ANH CÔNG NGHỆ THÔNG TIN CƠ BẢN 2</v>
       </c>
       <c r="C21" s="2">
         <v>5</v>
@@ -1632,96 +1805,131 @@
       <c r="E21" s="2">
         <v>0</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>269</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CHỦ NGHĨA XÃ HỘI KHOA HỌC</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>269</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="3">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PHÁP LUẬT ĐẠI CƯƠNG</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>269</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2">
-        <v>2</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>NHẬP MÔN LẬP TRÌNH MÁY TÍNH</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>270</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="3">
-        <v>3</v>
-      </c>
-      <c r="D24" s="3">
-        <v>2</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>ĐẠI SỐ TUYẾN TÍNH</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>269</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="2">
-        <v>3</v>
-      </c>
-      <c r="D25" s="2">
-        <v>3</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>54</v>
+      <c r="B26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TIẾNG TRUNG CƠ BẢN 2</v>
       </c>
       <c r="C26" s="2">
         <v>5</v>
@@ -1732,16 +1940,23 @@
       <c r="E26" s="2">
         <v>0</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" t="s">
+        <v>269</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>56</v>
+      <c r="B27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TIẾNG HÀN CƠ BẢN 2</v>
       </c>
       <c r="C27" s="4">
         <v>5</v>
@@ -1752,16 +1967,23 @@
       <c r="E27" s="4">
         <v>0</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" t="s">
+        <v>269</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>58</v>
+      <c r="B28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TIẾNG NHẬT CƠ BẢN 2</v>
       </c>
       <c r="C28" s="2">
         <v>5</v>
@@ -1772,96 +1994,131 @@
       <c r="E28" s="2">
         <v>0</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" t="s">
+        <v>269</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>KINH TẾ HỌC ĐẠI CƯƠNG</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2</v>
+      </c>
+      <c r="D29" s="4">
+        <v>2</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>269</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="4">
-        <v>2</v>
-      </c>
-      <c r="D29" s="4">
-        <v>2</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TÁC PHONG LÀM VIỆC CHUYÊN NGHIỆP</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>269</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="2">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2">
-        <v>2</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>KỸ THUẬT SỐ</v>
+      </c>
+      <c r="C31" s="4">
+        <v>3</v>
+      </c>
+      <c r="D31" s="4">
+        <v>3</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>272</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="4">
-        <v>3</v>
-      </c>
-      <c r="D31" s="4">
-        <v>3</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PHƯƠNG PHÁP SỐ TRONG LẬP TRÌNH</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>269</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2">
-        <v>3</v>
-      </c>
-      <c r="D32" s="2">
-        <v>3</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>68</v>
+      <c r="B33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TIẾNG ANH CÔNG NGHỆ THÔNG TIN CƠ BẢN 3</v>
       </c>
       <c r="C33" s="2">
         <v>5</v>
@@ -1872,136 +2129,185 @@
       <c r="E33" s="2">
         <v>0</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" t="s">
+        <v>269</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LỊCH SỬ ĐẢNG CỘNG SẢN VIỆT NAM</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2</v>
+      </c>
+      <c r="D34" s="3">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>269</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="3">
-        <v>2</v>
-      </c>
-      <c r="D34" s="3">
-        <v>2</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TOÁN RỜI RẠC</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>269</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2">
-        <v>3</v>
-      </c>
-      <c r="D35" s="2">
-        <v>3</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CƠ SỞ DỮ LIỆU</v>
+      </c>
+      <c r="C36" s="3">
+        <v>3</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>269</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="3">
-        <v>3</v>
-      </c>
-      <c r="D36" s="3">
-        <v>3</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>KIẾN TRÚC MÁY TÍNH</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>271</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="2">
-        <v>3</v>
-      </c>
-      <c r="D37" s="2">
-        <v>3</v>
-      </c>
-      <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>KỸ THUẬT LẬP TRÌNH</v>
+      </c>
+      <c r="C38" s="3">
+        <v>3</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>270</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="3">
-        <v>3</v>
-      </c>
-      <c r="D38" s="3">
-        <v>2</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>THIẾT KẾ WEB</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2">
+        <v>3</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>270</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2">
-        <v>3</v>
-      </c>
-      <c r="D39" s="2">
-        <v>3</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>82</v>
+      <c r="B40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TIẾNG TRUNG CƠ BẢN 3</v>
       </c>
       <c r="C40" s="2">
         <v>5</v>
@@ -2012,16 +2318,23 @@
       <c r="E40" s="2">
         <v>0</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" t="s">
+        <v>269</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>84</v>
+      <c r="B41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TIẾNG HÀN CƠ BẢN 3</v>
       </c>
       <c r="C41" s="4">
         <v>5</v>
@@ -2032,16 +2345,23 @@
       <c r="E41" s="4">
         <v>0</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" t="s">
+        <v>269</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H41" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>86</v>
+      <c r="B42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TIẾNG NHẬT CƠ BẢN 3</v>
       </c>
       <c r="C42" s="2">
         <v>5</v>
@@ -2052,196 +2372,266 @@
       <c r="E42" s="2">
         <v>0</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" t="s">
+        <v>269</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H42" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>AEROBIC 1</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>270</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="4">
-        <v>1</v>
-      </c>
-      <c r="D43" s="4">
-        <v>0</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>BÓNG CHUYỀN 1</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>270</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0</v>
-      </c>
-      <c r="E44" s="2">
-        <v>1</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>BƠI 1</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>270</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="4">
-        <v>1</v>
-      </c>
-      <c r="D45" s="4">
-        <v>0</v>
-      </c>
-      <c r="E45" s="4">
-        <v>1</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>KARATE 1</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>270</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="2">
-        <v>1</v>
-      </c>
-      <c r="D46" s="2">
-        <v>0</v>
-      </c>
-      <c r="E46" s="2">
-        <v>1</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>KHIÊU VŨ 1</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>270</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="4">
-        <v>1</v>
-      </c>
-      <c r="D47" s="4">
-        <v>0</v>
-      </c>
-      <c r="E47" s="4">
-        <v>1</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PENCAK SILAT 1</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>270</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="2">
-        <v>1</v>
-      </c>
-      <c r="D48" s="2">
-        <v>0</v>
-      </c>
-      <c r="E48" s="2">
-        <v>1</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>BÓNG RỔ 1</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>270</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="4">
-        <v>1</v>
-      </c>
-      <c r="D49" s="4">
-        <v>0</v>
-      </c>
-      <c r="E49" s="4">
-        <v>1</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CẦU LÔNG 1</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>270</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="2">
-        <v>1</v>
-      </c>
-      <c r="D50" s="2">
-        <v>0</v>
-      </c>
-      <c r="E50" s="2">
-        <v>1</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TENNIS 1</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>270</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="4">
-        <v>1</v>
-      </c>
-      <c r="D51" s="4">
-        <v>0</v>
-      </c>
-      <c r="E51" s="4">
-        <v>1</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>106</v>
+      <c r="B52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TIẾNG ANH CÔNG NGHỆ THÔNG TIN CƠ BẢN 4</v>
       </c>
       <c r="C52" s="2">
         <v>5</v>
@@ -2252,156 +2642,212 @@
       <c r="E52" s="2">
         <v>0</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" t="s">
+        <v>269</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H52" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TƯ TƯỞNG HỒ CHÍ MINH</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>269</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="3">
-        <v>2</v>
-      </c>
-      <c r="D53" s="3">
-        <v>2</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>CẤU TRÚC DỮ LIỆU VÀ GIẢI THUẬT</v>
+      </c>
+      <c r="C54" s="2">
+        <v>3</v>
+      </c>
+      <c r="D54" s="2">
+        <v>2</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>269</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="2">
-        <v>3</v>
-      </c>
-      <c r="D54" s="2">
-        <v>2</v>
-      </c>
-      <c r="E54" s="2">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>HỆ QUẢN TRỊ CƠ SỞ DỮ LIỆU</v>
+      </c>
+      <c r="C55" s="3">
+        <v>3</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>270</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H55" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="3">
-        <v>3</v>
-      </c>
-      <c r="D55" s="3">
-        <v>2</v>
-      </c>
-      <c r="E55" s="3">
-        <v>1</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>LẬP TRÌNH HƯỚNG ĐỐI TƯỢNG</v>
+      </c>
+      <c r="C56" s="2">
+        <v>3</v>
+      </c>
+      <c r="D56" s="2">
+        <v>2</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>270</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="2">
-        <v>3</v>
-      </c>
-      <c r="D56" s="2">
-        <v>2</v>
-      </c>
-      <c r="E56" s="2">
-        <v>1</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>NGUYÊN LÝ HỆ ĐIỀU HÀNH</v>
+      </c>
+      <c r="C57" s="3">
+        <v>3</v>
+      </c>
+      <c r="D57" s="3">
+        <v>2</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>272</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="3">
-        <v>3</v>
-      </c>
-      <c r="D57" s="3">
-        <v>2</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>NHẬP MÔN CÔNG NGHỆ PHẦN MỀM</v>
+      </c>
+      <c r="C58" s="2">
+        <v>3</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>269</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="2">
-        <v>3</v>
-      </c>
-      <c r="D58" s="2">
-        <v>2</v>
-      </c>
-      <c r="E58" s="2">
-        <v>1</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>THỰC TẬP CƠ SỞ NGÀNH</v>
+      </c>
+      <c r="C59" s="3">
+        <v>3</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>272</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="3">
-        <v>3</v>
-      </c>
-      <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>122</v>
+      <c r="B60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TIẾNG TRUNG CƠ BẢN 4</v>
       </c>
       <c r="C60" s="2">
         <v>5</v>
@@ -2412,16 +2858,23 @@
       <c r="E60" s="2">
         <v>0</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" t="s">
+        <v>269</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H60" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>124</v>
+      <c r="B61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TIẾNG HÀN CƠ BẢN 4</v>
       </c>
       <c r="C61" s="4">
         <v>5</v>
@@ -2432,16 +2885,23 @@
       <c r="E61" s="4">
         <v>0</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" t="s">
+        <v>269</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H61" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>126</v>
+      <c r="B62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TIẾNG NHẬT CƠ BẢN 4</v>
       </c>
       <c r="C62" s="2">
         <v>5</v>
@@ -2452,196 +2912,266 @@
       <c r="E62" s="2">
         <v>0</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" t="s">
+        <v>269</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H62" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>AEROBIC 2</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>269</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="H63" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="4">
-        <v>1</v>
-      </c>
-      <c r="D63" s="4">
-        <v>0</v>
-      </c>
-      <c r="E63" s="4">
-        <v>1</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>BÓNG CHUYỀN 2</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>269</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="2">
-        <v>1</v>
-      </c>
-      <c r="D64" s="2">
-        <v>0</v>
-      </c>
-      <c r="E64" s="2">
-        <v>1</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>BƠI 2</v>
+      </c>
+      <c r="C65" s="4">
+        <v>1</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>269</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H65" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="4">
-        <v>1</v>
-      </c>
-      <c r="D65" s="4">
-        <v>0</v>
-      </c>
-      <c r="E65" s="4">
-        <v>1</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>KARATE 2</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>269</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="2">
-        <v>1</v>
-      </c>
-      <c r="D66" s="2">
-        <v>0</v>
-      </c>
-      <c r="E66" s="2">
-        <v>1</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="2" t="str">
+        <f t="shared" ref="B67:B109" si="1" xml:space="preserve"> UPPER(H67)</f>
+        <v>KHIÊU VŨ 2</v>
+      </c>
+      <c r="C67" s="4">
+        <v>1</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>269</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="H67" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="4">
-        <v>1</v>
-      </c>
-      <c r="D67" s="4">
-        <v>0</v>
-      </c>
-      <c r="E67" s="4">
-        <v>1</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>PENCAK SILAT 2</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>269</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="2">
-        <v>1</v>
-      </c>
-      <c r="D68" s="2">
-        <v>0</v>
-      </c>
-      <c r="E68" s="2">
-        <v>1</v>
-      </c>
-      <c r="F68" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>BÓNG RỔ 2</v>
+      </c>
+      <c r="C69" s="4">
+        <v>1</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>269</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H69" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="4">
-        <v>1</v>
-      </c>
-      <c r="D69" s="4">
-        <v>0</v>
-      </c>
-      <c r="E69" s="4">
-        <v>1</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CẦU LÔNG 2</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>269</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H70" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="2">
-        <v>1</v>
-      </c>
-      <c r="D70" s="2">
-        <v>0</v>
-      </c>
-      <c r="E70" s="2">
-        <v>1</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:8" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TENNIS 2</v>
+      </c>
+      <c r="C71" s="4">
+        <v>1</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
+      <c r="E71" s="4">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>269</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="H71" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="4">
-        <v>1</v>
-      </c>
-      <c r="D71" s="4">
-        <v>0</v>
-      </c>
-      <c r="E71" s="4">
-        <v>1</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>146</v>
+      <c r="B72" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TIẾNG ANH CÔNG NGHỆ THÔNG TIN CƠ BẢN 5</v>
       </c>
       <c r="C72" s="2">
         <v>5</v>
@@ -2652,16 +3182,23 @@
       <c r="E72" s="2">
         <v>0</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" t="s">
+        <v>269</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H72" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>148</v>
+      <c r="B73" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>MẠNG MÁY TÍNH</v>
       </c>
       <c r="C73" s="3">
         <v>3</v>
@@ -2672,76 +3209,104 @@
       <c r="E73" s="3">
         <v>0.5</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F73" t="s">
+        <v>272</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>PHÂN TÍCH VÀ ĐẶC TẢ YÊU CẦU PHẦN MỀM</v>
+      </c>
+      <c r="C74" s="2">
+        <v>3</v>
+      </c>
+      <c r="D74" s="2">
+        <v>2</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+      <c r="F74" t="s">
+        <v>270</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="2">
-        <v>3</v>
-      </c>
-      <c r="D74" s="2">
-        <v>2</v>
-      </c>
-      <c r="E74" s="2">
-        <v>1</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TRÍ TUỆ NHÂN TẠO</v>
+      </c>
+      <c r="C75" s="3">
+        <v>3</v>
+      </c>
+      <c r="D75" s="3">
+        <v>3</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>272</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H75" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C75" s="3">
-        <v>3</v>
-      </c>
-      <c r="D75" s="3">
-        <v>3</v>
-      </c>
-      <c r="E75" s="3">
-        <v>0</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LẬP TRÌNH .NET</v>
+      </c>
+      <c r="C76" s="2">
+        <v>3</v>
+      </c>
+      <c r="D76" s="2">
+        <v>2</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+      <c r="F76" t="s">
+        <v>270</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C76" s="2">
-        <v>3</v>
-      </c>
-      <c r="D76" s="2">
-        <v>2</v>
-      </c>
-      <c r="E76" s="2">
-        <v>1</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>156</v>
+      <c r="B77" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TIẾNG TRUNG CƠ BẢN 5</v>
       </c>
       <c r="C77" s="2">
         <v>5</v>
@@ -2752,16 +3317,23 @@
       <c r="E77" s="2">
         <v>0</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F77" t="s">
+        <v>269</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>158</v>
+      <c r="B78" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TIẾNG HÀN CƠ BẢN 5</v>
       </c>
       <c r="C78" s="4">
         <v>5</v>
@@ -2772,16 +3344,23 @@
       <c r="E78" s="4">
         <v>0</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F78" t="s">
+        <v>269</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>160</v>
+      <c r="B79" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TIẾNG NHẬT CƠ BẢN 5</v>
       </c>
       <c r="C79" s="2">
         <v>5</v>
@@ -2792,116 +3371,158 @@
       <c r="E79" s="2">
         <v>0</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F79" t="s">
+        <v>269</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TỐI ƯU HÓA</v>
+      </c>
+      <c r="C80" s="4">
+        <v>3</v>
+      </c>
+      <c r="D80" s="4">
+        <v>3</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>272</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H80" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C80" s="4">
-        <v>3</v>
-      </c>
-      <c r="D80" s="4">
-        <v>3</v>
-      </c>
-      <c r="E80" s="4">
-        <v>0</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>XÁC SUẤT THỐNG KÊ</v>
+      </c>
+      <c r="C81" s="2">
+        <v>3</v>
+      </c>
+      <c r="D81" s="2">
+        <v>3</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>269</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H81" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C81" s="2">
-        <v>3</v>
-      </c>
-      <c r="D81" s="2">
-        <v>3</v>
-      </c>
-      <c r="E81" s="2">
-        <v>0</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CƠ SỞ LẬP TRÌNH NHÚNG</v>
+      </c>
+      <c r="C82" s="4">
+        <v>3</v>
+      </c>
+      <c r="D82" s="4">
+        <v>2</v>
+      </c>
+      <c r="E82" s="4">
+        <v>1</v>
+      </c>
+      <c r="F82" t="s">
+        <v>270</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H82" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C82" s="4">
-        <v>3</v>
-      </c>
-      <c r="D82" s="4">
-        <v>2</v>
-      </c>
-      <c r="E82" s="4">
-        <v>1</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ĐỒ HỌA MÁY TÍNH</v>
+      </c>
+      <c r="C83" s="2">
+        <v>3</v>
+      </c>
+      <c r="D83" s="2">
+        <v>2</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1</v>
+      </c>
+      <c r="F83" t="s">
+        <v>270</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H83" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="2">
-        <v>3</v>
-      </c>
-      <c r="D83" s="2">
-        <v>2</v>
-      </c>
-      <c r="E83" s="2">
-        <v>1</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>THIẾT KẾ GIAO DIỆN NGƯỜI DÙNG</v>
+      </c>
+      <c r="C84" s="4">
+        <v>3</v>
+      </c>
+      <c r="D84" s="4">
+        <v>2</v>
+      </c>
+      <c r="E84" s="4">
+        <v>1</v>
+      </c>
+      <c r="F84" t="s">
+        <v>270</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H84" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C84" s="4">
-        <v>3</v>
-      </c>
-      <c r="D84" s="4">
-        <v>2</v>
-      </c>
-      <c r="E84" s="4">
-        <v>1</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>172</v>
+      <c r="B85" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>AN TOÀN VÀ BẢO MẬT THÔNG TIN</v>
       </c>
       <c r="C85" s="2">
         <v>3</v>
@@ -2912,36 +3533,50 @@
       <c r="E85" s="2">
         <v>0.5</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F85" t="s">
+        <v>272</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>THIẾT KẾ PHẦN MỀM</v>
+      </c>
+      <c r="C86" s="3">
+        <v>3</v>
+      </c>
+      <c r="D86" s="3">
+        <v>2</v>
+      </c>
+      <c r="E86" s="3">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>270</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H86" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C86" s="3">
-        <v>3</v>
-      </c>
-      <c r="D86" s="3">
-        <v>2</v>
-      </c>
-      <c r="E86" s="3">
-        <v>1</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>176</v>
+      <c r="B87" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>KIỂM THỬ PHẦN MỀM</v>
       </c>
       <c r="C87" s="2">
         <v>3</v>
@@ -2952,56 +3587,77 @@
       <c r="E87" s="2">
         <v>0.5</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F87" t="s">
+        <v>272</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LẬP TRÌNH JAVA</v>
+      </c>
+      <c r="C88" s="3">
+        <v>3</v>
+      </c>
+      <c r="D88" s="3">
+        <v>2</v>
+      </c>
+      <c r="E88" s="3">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>272</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H88" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C88" s="3">
-        <v>3</v>
-      </c>
-      <c r="D88" s="3">
-        <v>2</v>
-      </c>
-      <c r="E88" s="3">
-        <v>1</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:8" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>THỰC TÂP CHUYÊN NGÀNH KỸ THUẬT PHẦN MỀM</v>
+      </c>
+      <c r="C89" s="2">
+        <v>3</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>272</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H89" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C89" s="2">
-        <v>3</v>
-      </c>
-      <c r="D89" s="2">
-        <v>0</v>
-      </c>
-      <c r="E89" s="2">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>182</v>
+      <c r="B90" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TIẾNG ANH CÔNG NGHỆ THÔNG TIN</v>
       </c>
       <c r="C90" s="2">
         <v>5</v>
@@ -3012,16 +3668,23 @@
       <c r="E90" s="2">
         <v>0</v>
       </c>
-      <c r="F90" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F90" t="s">
+        <v>269</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>184</v>
+      <c r="B91" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TIẾNG NHẬT</v>
       </c>
       <c r="C91" s="4">
         <v>5</v>
@@ -3032,16 +3695,23 @@
       <c r="E91" s="4">
         <v>0</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F91" t="s">
+        <v>269</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>186</v>
+      <c r="B92" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TIẾNG TRUNG</v>
       </c>
       <c r="C92" s="2">
         <v>5</v>
@@ -3052,16 +3722,23 @@
       <c r="E92" s="2">
         <v>0</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F92" t="s">
+        <v>269</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>188</v>
+      <c r="B93" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TIẾNG HÀN</v>
       </c>
       <c r="C93" s="4">
         <v>5</v>
@@ -3072,56 +3749,77 @@
       <c r="E93" s="4">
         <v>0</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F93" t="s">
+        <v>269</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CÔNG CỤ PHÁT TRIỂN PHẦN MỀM</v>
+      </c>
+      <c r="C94" s="2">
+        <v>3</v>
+      </c>
+      <c r="D94" s="2">
+        <v>2</v>
+      </c>
+      <c r="E94" s="2">
+        <v>1</v>
+      </c>
+      <c r="F94" t="s">
+        <v>272</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H94" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C94" s="2">
-        <v>3</v>
-      </c>
-      <c r="D94" s="2">
-        <v>2</v>
-      </c>
-      <c r="E94" s="2">
-        <v>1</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ỨNG DỤNG THUẬT TOÁN</v>
+      </c>
+      <c r="C95" s="4">
+        <v>3</v>
+      </c>
+      <c r="D95" s="4">
+        <v>2</v>
+      </c>
+      <c r="E95" s="4">
+        <v>1</v>
+      </c>
+      <c r="F95" t="s">
+        <v>270</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H95" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C95" s="4">
-        <v>3</v>
-      </c>
-      <c r="D95" s="4">
-        <v>2</v>
-      </c>
-      <c r="E95" s="4">
-        <v>1</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>194</v>
+      <c r="B96" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>QUẢN LÝ DỰ ÁN CÔNG NGHỆ THÔNG TIN</v>
       </c>
       <c r="C96" s="2">
         <v>3</v>
@@ -3132,16 +3830,23 @@
       <c r="E96" s="2">
         <v>0.5</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="F96" t="s">
+        <v>272</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H96" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>195</v>
+      <c r="B97" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ĐẢM BẢO CHẤT LƯỢNG PHẦN MỀM</v>
       </c>
       <c r="C97" s="3">
         <v>3</v>
@@ -3152,216 +3857,293 @@
       <c r="E97" s="3">
         <v>0.5</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="F97" t="s">
+        <v>272</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H97" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B98" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>MỘT SỐ CÔNG NGHỆ PHÁT TRIỂN PHẦN MỀM</v>
+      </c>
+      <c r="C98" s="2">
+        <v>3</v>
+      </c>
+      <c r="D98" s="2">
+        <v>2</v>
+      </c>
+      <c r="E98" s="2">
+        <v>1</v>
+      </c>
+      <c r="F98" t="s">
+        <v>272</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="H98" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C98" s="2">
-        <v>3</v>
-      </c>
-      <c r="D98" s="2">
-        <v>2</v>
-      </c>
-      <c r="E98" s="2">
-        <v>1</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CÔNG NGHỆ ĐA PHƯƠNG TIỆN</v>
+      </c>
+      <c r="C99" s="2">
+        <v>3</v>
+      </c>
+      <c r="D99" s="2">
+        <v>2</v>
+      </c>
+      <c r="E99" s="2">
+        <v>1</v>
+      </c>
+      <c r="F99" t="s">
+        <v>270</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H99" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C99" s="2">
-        <v>3</v>
-      </c>
-      <c r="D99" s="2">
-        <v>2</v>
-      </c>
-      <c r="E99" s="2">
-        <v>1</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>CÔNG NGHỆ THỰC TẠI ẢO</v>
+      </c>
+      <c r="C100" s="4">
+        <v>3</v>
+      </c>
+      <c r="D100" s="4">
+        <v>2</v>
+      </c>
+      <c r="E100" s="4">
+        <v>1</v>
+      </c>
+      <c r="F100" t="s">
+        <v>270</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H100" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C100" s="4">
-        <v>3</v>
-      </c>
-      <c r="D100" s="4">
-        <v>2</v>
-      </c>
-      <c r="E100" s="4">
-        <v>1</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LẬP TRÌNH WEB BẰNG ASP.NET</v>
+      </c>
+      <c r="C101" s="4">
+        <v>3</v>
+      </c>
+      <c r="D101" s="4">
+        <v>2</v>
+      </c>
+      <c r="E101" s="4">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>270</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H101" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C101" s="4">
-        <v>3</v>
-      </c>
-      <c r="D101" s="4">
-        <v>2</v>
-      </c>
-      <c r="E101" s="4">
-        <v>1</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LẬP TRÌNH JAVA NÂNG CAO</v>
+      </c>
+      <c r="C102" s="2">
+        <v>3</v>
+      </c>
+      <c r="D102" s="2">
+        <v>2</v>
+      </c>
+      <c r="E102" s="2">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>270</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H102" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C102" s="2">
-        <v>3</v>
-      </c>
-      <c r="D102" s="2">
-        <v>2</v>
-      </c>
-      <c r="E102" s="2">
-        <v>1</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>LẬP TRÌNH WEB BẰNG PHP</v>
+      </c>
+      <c r="C103" s="2">
+        <v>3</v>
+      </c>
+      <c r="D103" s="2">
+        <v>2</v>
+      </c>
+      <c r="E103" s="2">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>272</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="H103" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C103" s="2">
-        <v>3</v>
-      </c>
-      <c r="D103" s="2">
-        <v>2</v>
-      </c>
-      <c r="E103" s="2">
-        <v>1</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>PHÁT TRIỂN ỨNG DỤNG TRÊN THIẾT BỊ DI ĐỘNG</v>
+      </c>
+      <c r="C104" s="2">
+        <v>3</v>
+      </c>
+      <c r="D104" s="2">
+        <v>2</v>
+      </c>
+      <c r="E104" s="2">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>272</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H104" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C104" s="2">
-        <v>3</v>
-      </c>
-      <c r="D104" s="2">
-        <v>2</v>
-      </c>
-      <c r="E104" s="2">
-        <v>1</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>PHÁT TRIỂN ỨNG DỤNG GAME</v>
+      </c>
+      <c r="C105" s="4">
+        <v>3</v>
+      </c>
+      <c r="D105" s="4">
+        <v>2</v>
+      </c>
+      <c r="E105" s="4">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>272</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H105" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C105" s="4">
-        <v>3</v>
-      </c>
-      <c r="D105" s="4">
-        <v>2</v>
-      </c>
-      <c r="E105" s="4">
-        <v>1</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>PHẦN MỀM MÃ NGUỒN MỞ</v>
+      </c>
+      <c r="C106" s="4">
+        <v>3</v>
+      </c>
+      <c r="D106" s="4">
+        <v>2</v>
+      </c>
+      <c r="E106" s="4">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>272</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H106" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C106" s="4">
-        <v>3</v>
-      </c>
-      <c r="D106" s="4">
-        <v>2</v>
-      </c>
-      <c r="E106" s="4">
-        <v>1</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>TÍCH HỢP HỆ THỐNG PHẦN MỀM</v>
+      </c>
+      <c r="C107" s="2">
+        <v>3</v>
+      </c>
+      <c r="D107" s="2">
+        <v>2</v>
+      </c>
+      <c r="E107" s="2">
+        <v>1</v>
+      </c>
+      <c r="F107" t="s">
+        <v>270</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H107" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C107" s="2">
-        <v>3</v>
-      </c>
-      <c r="D107" s="2">
-        <v>2</v>
-      </c>
-      <c r="E107" s="2">
-        <v>1</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>216</v>
+      <c r="B108" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ĐỒ ÁN TỐT NGHIỆP</v>
       </c>
       <c r="C108" s="2">
         <v>9</v>
@@ -3372,13 +4154,20 @@
       <c r="E108" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F108" t="s">
+        <v>273</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
+      </c>
+      <c r="B109" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>THỰC TẬP DOANH NGHIỆP</v>
       </c>
       <c r="C109" s="3">
         <v>6</v>
@@ -3388,6 +4177,12 @@
       </c>
       <c r="E109" s="3">
         <v>0</v>
+      </c>
+      <c r="F109" t="s">
+        <v>271</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
